--- a/biology/Botanique/Saccolomataceae/Saccolomataceae.xlsx
+++ b/biology/Botanique/Saccolomataceae/Saccolomataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Saccolomataceae sont une famille de fougères de l'ordre des Polypodiales. Il a été autrefois traité comme faisant partie des Dennstaedtiaceae, mais il a été classé dans sa propre famille selon Smith et al. (2006)[1]. Le genre Saccoloma (en)  a été décrit comme incluant le genre Orthiopteris (en), mais la phylogénie du groupe n'est pas encore entièrement comprise[2].
-Cette famille est monogénérique avec le genre Saccoloma et environ 18 espèces[3],[4]. Sa répartition géographique est pantropicale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Saccolomataceae sont une famille de fougères de l'ordre des Polypodiales. Il a été autrefois traité comme faisant partie des Dennstaedtiaceae, mais il a été classé dans sa propre famille selon Smith et al. (2006). Le genre Saccoloma (en)  a été décrit comme incluant le genre Orthiopteris (en), mais la phylogénie du groupe n'est pas encore entièrement comprise.
+Cette famille est monogénérique avec le genre Saccoloma et environ 18 espèces,. Sa répartition géographique est pantropicale.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Saccoloma, dérivé du grec σάκκο / sacco, sac, et λόμα / loma, bordure.
 </t>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, le Pteridophyte Phylogeny Group a placé cette famille comme la seule des Saccolomatineae, l'un des six sous-ordres composant l'ordre des Polypodiales. Ces sous-ordres sont liés phylogénétiquement, comme le montre ce cladogramme[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, le Pteridophyte Phylogeny Group a placé cette famille comme la seule des Saccolomatineae, l'un des six sous-ordres composant l'ordre des Polypodiales. Ces sous-ordres sont liés phylogénétiquement, comme le montre ce cladogramme :
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Saccolomataceae ont généralement les caractéristiques suivantes : terrestres ; rhizomes courts et rampants ou érigés et en forme de tronc ; pétioles chacun avec un brin vasculaire en forme d'oméga; limbes pennés à décomposés et dépourvus de poils articulés ; veines libres ; sores terminaux sur les veines ; indusie en forme de poche ou de coupe[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Saccolomataceae ont généralement les caractéristiques suivantes : terrestres ; rhizomes courts et rampants ou érigés et en forme de tronc ; pétioles chacun avec un brin vasculaire en forme d'oméga; limbes pennés à décomposés et dépourvus de poils articulés ; veines libres ; sores terminaux sur les veines ; indusie en forme de poche ou de coupe.
 </t>
         </is>
       </c>
